--- a/evaluation/Test_Evaluation_Lukas.xlsx
+++ b/evaluation/Test_Evaluation_Lukas.xlsx
@@ -1,13 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84EF11E-63E0-294D-A067-683E9A7876FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Evaluation" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Results" state="visible" r:id="rId5"/>
+    <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -467,14 +484,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -507,14 +524,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00FF00"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -852,11 +869,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E34"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="76" customWidth="1"/>
+    <col min="3" max="3" width="154.1640625" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -890,7 +917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -907,7 +934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -924,7 +951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -941,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -958,7 +985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -975,7 +1002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -992,7 +1019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1009,7 +1036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1026,7 +1053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1043,7 +1070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1060,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1077,7 +1104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1094,7 +1121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1111,7 +1138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1128,7 +1155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1145,7 +1172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -1162,7 +1189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1179,7 +1206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -1196,7 +1223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -1213,7 +1240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1230,7 +1257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -1247,7 +1274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -1264,7 +1291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1281,7 +1308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -1298,7 +1325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -1315,7 +1342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -1332,7 +1359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -1349,7 +1376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -1366,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -1383,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -1400,7 +1427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>124</v>
       </c>
@@ -1417,7 +1444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -1435,25 +1462,25 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Choice" error="Please select Yes or No." sqref="E10:E34">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Choice" error="Please select Yes or No." sqref="E2:E34">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Choice" error="Please select Yes or No." sqref="E2:E34" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C34"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1464,379 +1491,412 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>133</v>
       </c>
-      <c r="C2">
-        <f>=Evaluation!E2</f>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>Evaluation!E2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>133</v>
       </c>
-      <c r="C3">
-        <f>=Evaluation!E3</f>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f>Evaluation!E3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>133</v>
       </c>
-      <c r="C4">
-        <f>=Evaluation!E4</f>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f>Evaluation!E4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>134</v>
       </c>
-      <c r="C5">
-        <f>=Evaluation!E5</f>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f>Evaluation!E5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>133</v>
       </c>
-      <c r="C6">
-        <f>=Evaluation!E6</f>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f>Evaluation!E6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>134</v>
       </c>
-      <c r="C7">
-        <f>=Evaluation!E7</f>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f>Evaluation!E7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>134</v>
       </c>
-      <c r="C8">
-        <f>=Evaluation!E8</f>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f>Evaluation!E8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>133</v>
       </c>
-      <c r="C9">
-        <f>=Evaluation!E9</f>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f>Evaluation!E9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>134</v>
       </c>
-      <c r="C10">
-        <f>=Evaluation!E10</f>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f>Evaluation!E10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>133</v>
       </c>
-      <c r="C11">
-        <f>=Evaluation!E11</f>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f>Evaluation!E11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>133</v>
       </c>
-      <c r="C12">
-        <f>=Evaluation!E12</f>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f>Evaluation!E12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>133</v>
       </c>
-      <c r="C13">
-        <f>=Evaluation!E13</f>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f>Evaluation!E13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>133</v>
       </c>
-      <c r="C14">
-        <f>=Evaluation!E14</f>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f>Evaluation!E14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>133</v>
       </c>
-      <c r="C15">
-        <f>=Evaluation!E15</f>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f>Evaluation!E15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>133</v>
       </c>
-      <c r="C16">
-        <f>=Evaluation!E16</f>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f>Evaluation!E16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>133</v>
       </c>
-      <c r="C17">
-        <f>=Evaluation!E17</f>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="str">
+        <f>Evaluation!E17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
       <c r="B18" t="s">
         <v>133</v>
       </c>
-      <c r="C18">
-        <f>=Evaluation!E18</f>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="str">
+        <f>Evaluation!E18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>71</v>
       </c>
       <c r="B19" t="s">
         <v>133</v>
       </c>
-      <c r="C19">
-        <f>=Evaluation!E19</f>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="str">
+        <f>Evaluation!E19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>133</v>
       </c>
-      <c r="C20">
-        <f>=Evaluation!E20</f>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="str">
+        <f>Evaluation!E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>79</v>
       </c>
       <c r="B21" t="s">
         <v>133</v>
       </c>
-      <c r="C21">
-        <f>=Evaluation!E21</f>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="str">
+        <f>Evaluation!E21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>83</v>
       </c>
       <c r="B22" t="s">
         <v>134</v>
       </c>
-      <c r="C22">
-        <f>=Evaluation!E22</f>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="str">
+        <f>Evaluation!E22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>87</v>
       </c>
       <c r="B23" t="s">
         <v>133</v>
       </c>
-      <c r="C23">
-        <f>=Evaluation!E23</f>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="str">
+        <f>Evaluation!E23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>90</v>
       </c>
       <c r="B24" t="s">
         <v>133</v>
       </c>
-      <c r="C24">
-        <f>=Evaluation!E24</f>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="str">
+        <f>Evaluation!E24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
       <c r="B25" t="s">
         <v>134</v>
       </c>
-      <c r="C25">
-        <f>=Evaluation!E25</f>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="str">
+        <f>Evaluation!E25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>97</v>
       </c>
       <c r="B26" t="s">
         <v>133</v>
       </c>
-      <c r="C26">
-        <f>=Evaluation!E26</f>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="str">
+        <f>Evaluation!E26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>101</v>
       </c>
       <c r="B27" t="s">
         <v>134</v>
       </c>
-      <c r="C27">
-        <f>=Evaluation!E27</f>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="str">
+        <f>Evaluation!E27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>105</v>
       </c>
       <c r="B28" t="s">
         <v>133</v>
       </c>
-      <c r="C28">
-        <f>=Evaluation!E28</f>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="str">
+        <f>Evaluation!E28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>109</v>
       </c>
       <c r="B29" t="s">
         <v>134</v>
       </c>
-      <c r="C29">
-        <f>=Evaluation!E29</f>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="str">
+        <f>Evaluation!E29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>112</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
       </c>
-      <c r="C30">
-        <f>=Evaluation!E30</f>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="str">
+        <f>Evaluation!E30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>116</v>
       </c>
       <c r="B31" t="s">
         <v>133</v>
       </c>
-      <c r="C31">
-        <f>=Evaluation!E31</f>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="str">
+        <f>Evaluation!E31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>120</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
       </c>
-      <c r="C32">
-        <f>=Evaluation!E32</f>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="str">
+        <f>Evaluation!E32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>124</v>
       </c>
       <c r="B33" t="s">
         <v>133</v>
       </c>
-      <c r="C33">
-        <f>=Evaluation!E33</f>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="str">
+        <f>Evaluation!E33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>128</v>
       </c>
       <c r="B34" t="s">
         <v>133</v>
       </c>
-      <c r="C34">
-        <f>=Evaluation!E34</f>
+      <c r="C34" t="str">
+        <f>Evaluation!E34</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C34">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$B2=$C2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$B2&lt;&gt;$C2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>